--- a/Lexer/table_gen/sm.xlsx
+++ b/Lexer/table_gen/sm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Random_is\Desktop\Кленин компилятор\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Random_is\Desktop\PycharmProjects\Compiler_PJ\Lexer\table_gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011FF50C-B74A-44EB-8566-27369F423842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17EDBD1-4BA7-483A-B086-AE19BD3F1E10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AC09E15-7694-41CA-9514-BFD54FAE9CFA}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{0AC09E15-7694-41CA-9514-BFD54FAE9CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Книга1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="129">
   <si>
     <t>!</t>
   </si>
@@ -347,18 +347,12 @@
     <t>word_s</t>
   </si>
   <si>
-    <t>r_slash_s</t>
-  </si>
-  <si>
     <t>or_s</t>
   </si>
   <si>
     <t>g_t_op_b</t>
   </si>
   <si>
-    <t>end_r_slash</t>
-  </si>
-  <si>
     <t>comment_s</t>
   </si>
   <si>
@@ -368,21 +362,12 @@
     <t>add_sym</t>
   </si>
   <si>
-    <t>end_string</t>
-  </si>
-  <si>
-    <t>g_t_vv_b</t>
-  </si>
-  <si>
     <t>double_s</t>
   </si>
   <si>
     <t>g_t_word_b</t>
   </si>
   <si>
-    <t>g_t_vv</t>
-  </si>
-  <si>
     <t>string_s</t>
   </si>
   <si>
@@ -390,13 +375,55 @@
   </si>
   <si>
     <t>zero_s</t>
+  </si>
+  <si>
+    <t>g_t_int_b</t>
+  </si>
+  <si>
+    <t>g_t_dbl</t>
+  </si>
+  <si>
+    <t>g_t_dbl_b</t>
+  </si>
+  <si>
+    <t>g_t_str</t>
+  </si>
+  <si>
+    <t>end_char</t>
+  </si>
+  <si>
+    <t>r_slash_char</t>
+  </si>
+  <si>
+    <t>end_r_s_char</t>
+  </si>
+  <si>
+    <t>end_r_s_str</t>
+  </si>
+  <si>
+    <t>r_s_str_s</t>
+  </si>
+  <si>
+    <t>r_s_char_s</t>
+  </si>
+  <si>
+    <t>e_char_s</t>
+  </si>
+  <si>
+    <t>g_t_char</t>
+  </si>
+  <si>
+    <t>r_slash_str</t>
+  </si>
+  <si>
+    <t>char_s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +444,24 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -444,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -453,6 +498,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,15 +820,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA75ABF3-EDF3-4F5C-8940-495EE2C653D0}">
-  <dimension ref="A1:CT17"/>
+  <dimension ref="A1:CT20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" style="2" customWidth="1"/>
     <col min="2" max="3" width="7.140625" style="2"/>
     <col min="4" max="4" width="7.140625" style="2" customWidth="1"/>
     <col min="5" max="16384" width="7.140625" style="2"/>
@@ -1093,7 +1144,7 @@
         <v>92</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>95</v>
@@ -1108,7 +1159,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>98</v>
@@ -1126,7 +1177,7 @@
         <v>98</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>98</v>
@@ -1135,7 +1186,7 @@
         <v>99</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>100</v>
@@ -1363,7 +1414,7 @@
         <v>98</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CS2" s="2" t="s">
         <v>98</v>
@@ -1377,13 +1428,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>95</v>
@@ -1407,7 +1458,7 @@
         <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>95</v>
@@ -1422,7 +1473,7 @@
         <v>95</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>95</v>
@@ -1431,34 +1482,34 @@
         <v>95</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>95</v>
@@ -1482,82 +1533,82 @@
         <v>95</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BK3" s="2" t="s">
         <v>95</v>
@@ -1572,88 +1623,88 @@
         <v>95</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BP3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CB3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CC3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CD3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CE3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CG3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CI3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CJ3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CK3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CM3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CN3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CP3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CQ3" s="2" t="s">
         <v>95</v>
@@ -1673,13 +1724,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>95</v>
@@ -1703,7 +1754,7 @@
         <v>95</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>95</v>
@@ -1718,7 +1769,7 @@
         <v>95</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>95</v>
@@ -1727,34 +1778,34 @@
         <v>95</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD4" s="2" t="s">
         <v>95</v>
@@ -1778,82 +1829,82 @@
         <v>95</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AV4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AX4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AZ4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BA4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BC4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BD4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BI4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BK4" s="2" t="s">
         <v>95</v>
@@ -1868,88 +1919,88 @@
         <v>95</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BP4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BQ4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BR4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BS4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BT4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BW4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BX4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CC4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CD4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CE4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CG4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CH4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CI4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CJ4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CK4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CM4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CN4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CP4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CQ4" s="2" t="s">
         <v>95</v>
@@ -1969,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>95</v>
@@ -1999,7 +2050,7 @@
         <v>95</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>95</v>
@@ -2074,82 +2125,82 @@
         <v>95</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AX5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AZ5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BA5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BC5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BI5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BK5" s="2" t="s">
         <v>95</v>
@@ -2164,88 +2215,88 @@
         <v>95</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BP5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BQ5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BR5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BS5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BT5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BV5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BW5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BX5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BY5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BZ5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CA5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CB5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CC5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CD5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CE5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CF5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CG5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CH5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CI5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CJ5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CK5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CL5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CM5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CN5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CO5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CP5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="CQ5" s="2" t="s">
         <v>95</v>
@@ -2261,8 +2312,8 @@
       </c>
     </row>
     <row r="6" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
+      <c r="A6" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>95</v>
@@ -2277,7 +2328,7 @@
         <v>95</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>95</v>
@@ -2292,7 +2343,7 @@
         <v>95</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>95</v>
@@ -2451,7 +2502,7 @@
         <v>95</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="BM6" s="2" t="s">
         <v>95</v>
@@ -2505,7 +2556,7 @@
         <v>95</v>
       </c>
       <c r="CD6" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="CE6" s="2" t="s">
         <v>95</v>
@@ -2557,23 +2608,23 @@
       </c>
     </row>
     <row r="7" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
+      <c r="A7" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>95</v>
@@ -2591,7 +2642,7 @@
         <v>95</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>95</v>
@@ -2612,37 +2663,37 @@
         <v>95</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>95</v>
@@ -2747,7 +2798,7 @@
         <v>95</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="BM7" s="2" t="s">
         <v>95</v>
@@ -2801,7 +2852,7 @@
         <v>95</v>
       </c>
       <c r="CD7" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="CE7" s="2" t="s">
         <v>95</v>
@@ -2854,1206 +2905,1206 @@
     </row>
     <row r="8" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BA8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BB8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BC8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BD8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BF8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BH8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BI8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BJ8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BK8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BM8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BN8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BP8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BQ8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BS8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BT8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BU8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BV8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BW8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BX8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BY8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BZ8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CA8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CB8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CC8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CE8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CF8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CG8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CH8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CI8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CJ8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CK8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CL8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CM8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CN8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CO8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CP8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CQ8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CR8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CS8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CT8" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BA9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BC9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BD9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BF9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BH9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BJ9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BL9" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="BM9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BN9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BO9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BP9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BQ9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BR9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BS9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BT9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BU9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BV9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BW9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BX9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BY9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BZ9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CA9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CB9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CC9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CD9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CE9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CF9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CG9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CH9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CI9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CJ9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CK9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CL9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CM9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CN9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CO9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CP9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CQ9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CR9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CS9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CT9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AX10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AY10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AZ10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BA10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BB10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BC10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BF10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BG10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BJ10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="BL10" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="BM10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="BN10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="BO10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BP10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="BQ10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BR10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BS10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BT10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BU10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BV10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BW10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BX10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BY10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BZ10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CA10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CB10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CC10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CD10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CE10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CF10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CG10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CH10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CI10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CJ10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CK10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CL10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CM10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CN10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CO10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CP10" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CQ10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="CR10" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="CS10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="CT10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
+      <c r="A11" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AY11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AZ11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BA11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BB11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BC11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BD11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BE11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BF11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BG11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BI11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BJ11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BK11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="BL11" s="2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="BM11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="BN11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="BO11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BP11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="BQ11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BR11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BS11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BT11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BU11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BV11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BW11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BX11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BY11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="BZ11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CA11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CB11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CC11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CE11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CF11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CG11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CH11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CI11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CJ11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CK11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CL11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CM11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CN11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CO11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CP11" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="CQ11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="CR11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="CS11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="CT11" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
+      <c r="A12" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>95</v>
@@ -4068,10 +4119,10 @@
         <v>95</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>95</v>
@@ -4086,7 +4137,7 @@
         <v>95</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>95</v>
@@ -4095,34 +4146,34 @@
         <v>95</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AD12" s="2" t="s">
         <v>95</v>
@@ -4134,7 +4185,7 @@
         <v>95</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH12" s="2" t="s">
         <v>95</v>
@@ -4146,82 +4197,82 @@
         <v>95</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AY12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BA12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BB12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BC12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BD12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BF12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BG12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BH12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BI12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BJ12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BK12" s="2" t="s">
         <v>95</v>
@@ -4236,91 +4287,91 @@
         <v>95</v>
       </c>
       <c r="BO12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BP12" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BQ12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BR12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BS12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BT12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BU12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BV12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BW12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BX12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BY12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="BZ12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CA12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CB12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CC12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CE12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CF12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CG12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CH12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CI12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CJ12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CK12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CL12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CM12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CN12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CO12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CP12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CQ12" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="CR12" s="2" t="s">
         <v>95</v>
@@ -4334,22 +4385,22 @@
     </row>
     <row r="13" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>95</v>
@@ -4367,7 +4418,7 @@
         <v>95</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>95</v>
@@ -4391,34 +4442,34 @@
         <v>95</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>95</v>
@@ -4433,193 +4484,193 @@
         <v>95</v>
       </c>
       <c r="AH13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CD13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CH13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CJ13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CK13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CM13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CN13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CQ13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR13" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BA13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BJ13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BL13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BM13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BP13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BR13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BS13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BU13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BV13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BW13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BX13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BY13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BZ13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CA13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CC13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CD13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CE13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CF13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CG13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CH13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CI13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CJ13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CK13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CL13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CM13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CN13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CO13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CP13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CQ13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CR13" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="CS13" s="2" t="s">
         <v>95</v>
@@ -4629,23 +4680,23 @@
       </c>
     </row>
     <row r="14" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>0</v>
+      <c r="A14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>95</v>
@@ -4654,82 +4705,82 @@
         <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AI14" s="2" t="s">
         <v>95</v>
@@ -4738,82 +4789,82 @@
         <v>95</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AX14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AY14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AZ14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BA14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BB14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BC14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BD14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BE14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BF14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BG14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BH14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BK14" s="2" t="s">
         <v>95</v>
@@ -4822,103 +4873,103 @@
         <v>95</v>
       </c>
       <c r="BM14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="BN14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BO14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BP14" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BQ14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BR14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BS14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BT14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BU14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BV14" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="BW14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BX14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BY14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BZ14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CA14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CB14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CC14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CE14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CF14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CG14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CH14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CI14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CJ14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CK14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CL14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CM14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CN14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CO14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CP14" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CQ14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="CR14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="CS14" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="CT14" s="2" t="s">
         <v>95</v>
@@ -4926,22 +4977,22 @@
     </row>
     <row r="15" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>95</v>
@@ -4950,82 +5001,82 @@
         <v>95</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AI15" s="2" t="s">
         <v>95</v>
@@ -5034,82 +5085,82 @@
         <v>95</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AV15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AX15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AY15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AZ15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BA15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BB15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BC15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BD15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BE15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BF15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BG15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BH15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BI15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BJ15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BK15" s="2" t="s">
         <v>95</v>
@@ -5118,103 +5169,103 @@
         <v>95</v>
       </c>
       <c r="BM15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="BN15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BO15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BP15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BQ15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BR15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BS15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BT15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BU15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BV15" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="BW15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BX15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BY15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BZ15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CA15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CB15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CC15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CE15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CF15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CG15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CH15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CI15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CJ15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CK15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CL15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CM15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CN15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CO15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CP15" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CQ15" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="CR15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="CS15" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="CT15" s="2" t="s">
         <v>95</v>
@@ -5222,19 +5273,19 @@
     </row>
     <row r="16" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>95</v>
@@ -5246,82 +5297,82 @@
         <v>95</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AI16" s="2" t="s">
         <v>95</v>
@@ -5330,82 +5381,82 @@
         <v>95</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AV16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AX16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AY16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AZ16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BA16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BC16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BD16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BE16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BF16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BG16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BH16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BI16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BJ16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BK16" s="2" t="s">
         <v>95</v>
@@ -5414,111 +5465,111 @@
         <v>95</v>
       </c>
       <c r="BM16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="BN16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BO16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BP16" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BQ16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BR16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BS16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BT16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BU16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BV16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BW16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BX16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BY16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="BZ16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CA16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CB16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CC16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CE16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CF16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CG16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CH16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CI16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CJ16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CK16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CL16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CM16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CN16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CO16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CP16" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="CQ16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="CR16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="CS16" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="CT16" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>86</v>
+      <c r="A17" s="3">
+        <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>115</v>
@@ -5551,7 +5602,7 @@
         <v>95</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>115</v>
@@ -5569,40 +5620,40 @@
         <v>115</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>115</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>115</v>
@@ -5626,85 +5677,85 @@
         <v>95</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AX17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AY17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AZ17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BA17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BB17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BC17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BD17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BE17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BF17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BG17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BH17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BI17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BJ17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BK17" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="BL17" s="2" t="s">
         <v>95</v>
@@ -5716,88 +5767,88 @@
         <v>95</v>
       </c>
       <c r="BO17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BP17" s="2" t="s">
         <v>95</v>
       </c>
       <c r="BQ17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BR17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BS17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BT17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BU17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BV17" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="BW17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BX17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BY17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BZ17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CA17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CB17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CC17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CD17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CE17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CF17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CG17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CH17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CI17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CJ17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CK17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CL17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CM17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CN17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CO17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CP17" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="CQ17" s="2" t="s">
         <v>115</v>
@@ -5809,6 +5860,894 @@
         <v>115</v>
       </c>
       <c r="CT17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CC18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CF18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CG18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CI18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CK18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CN18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CO18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CP18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CQ18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CR18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CS18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CT18" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BD19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BN19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BY19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CC19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CF19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CG19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CH19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CI19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CK19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CN19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CO19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CP19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CQ19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CR19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CS19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CT19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:98" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CP20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CQ20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CS20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="CT20" s="2" t="s">
         <v>95</v>
       </c>
     </row>
